--- a/results/nested_cv_results_SIDER_all.xlsx
+++ b/results/nested_cv_results_SIDER_all.xlsx
@@ -831,40 +831,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.026430212765862</v>
+        <v>1.195970769194302</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4478576145283831</v>
+        <v>0.05603074631153336</v>
       </c>
       <c r="E9" t="n">
-        <v>1.131053605201755</v>
+        <v>1.274742300749323</v>
       </c>
       <c r="F9" t="n">
-        <v>0.510656898107835</v>
+        <v>0.03122624064168397</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7192424943907096</v>
+        <v>0.8065849036024154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2962559254395326</v>
+        <v>0.02531323376243032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3071877183751523</v>
+        <v>0.389385865591887</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1527576727750889</v>
+        <v>0.03120888529641718</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7386203612600347</v>
+        <v>0.826507478296876</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3192581038773096</v>
+        <v>0.01492578225752224</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3924332439417205</v>
+        <v>0.4482348224524472</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1915382398801901</v>
+        <v>0.01762266813508276</v>
       </c>
     </row>
     <row r="10">
@@ -875,40 +875,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8260774882609561</v>
+        <v>0.8261844421311675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1092219424993122</v>
+        <v>0.109094945434438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9824405436330641</v>
+        <v>0.9791658616557497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07967884405345624</v>
+        <v>0.07706190457444258</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6326154383323142</v>
+        <v>0.6327161045089257</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06275910719092112</v>
+        <v>0.06264375605234385</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1934620499286418</v>
+        <v>0.1934683376222418</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04820546478811247</v>
+        <v>0.04819509740989065</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6438247451725807</v>
+        <v>0.6442239714298849</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05126897284484671</v>
+        <v>0.04922815249465151</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3386157984604833</v>
+        <v>0.3349418902258648</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03036343891309913</v>
+        <v>0.02979974351910076</v>
       </c>
     </row>
     <row r="11">
@@ -1099,40 +1099,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5189700976034752</v>
+        <v>1.264326821604307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1073468537342868</v>
+        <v>0.02563441908483064</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5487258246457586</v>
+        <v>1.354326444890955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1410638116412263</v>
+        <v>0.0233220979147192</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4325102315646353</v>
+        <v>0.8658879774747146</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09894487531815348</v>
+        <v>0.009220350321869741</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0864598660388399</v>
+        <v>0.3984388441295926</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02327855728404522</v>
+        <v>0.0186272939297205</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4281514994298446</v>
+        <v>0.8926842735086213</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1164649610323053</v>
+        <v>0.004399550430334076</v>
       </c>
       <c r="M15" t="n">
-        <v>0.120574325215914</v>
+        <v>0.4616421713823337</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02909013835627031</v>
+        <v>0.02143881809885384</v>
       </c>
     </row>
     <row r="16">
@@ -1143,40 +1143,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5452785012083562</v>
+        <v>0.5452784897848073</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03682368537971845</v>
+        <v>0.03682368865744053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5561338863385996</v>
+        <v>0.5561338871153528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05425694800281269</v>
+        <v>0.05425692926805672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4647156573264943</v>
+        <v>0.4647156473061333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02328234454729272</v>
+        <v>0.02328235076847067</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08056284388186194</v>
+        <v>0.08056284247867394</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0141815506963701</v>
+        <v>0.01418155001898062</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4542812410311219</v>
+        <v>0.4542812399970669</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03414354518085683</v>
+        <v>0.03414354111958656</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1018526453074777</v>
+        <v>0.1018526471182859</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02332009239958748</v>
+        <v>0.02332008181172672</v>
       </c>
     </row>
     <row r="17">
@@ -1367,40 +1367,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.013793752871899</v>
+        <v>1.090868072942576</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03217365129402657</v>
+        <v>0.03938684114792725</v>
       </c>
       <c r="E21" t="n">
-        <v>1.040225628416402</v>
+        <v>1.125397327852596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02715526556966741</v>
+        <v>0.01859554962317584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7149419955872642</v>
+        <v>0.7593909119272357</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02159370509578752</v>
+        <v>0.02015750152029337</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2988517572846351</v>
+        <v>0.33147716101534</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01423927973993943</v>
+        <v>0.02177122527026473</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7039626166517443</v>
+        <v>0.7536544949801667</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0160084050758757</v>
+        <v>0.008247829557815813</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3362630117646572</v>
+        <v>0.3717428328724292</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01225724366683333</v>
+        <v>0.01149450071574837</v>
       </c>
     </row>
     <row r="22">
@@ -1411,40 +1411,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5733983149708755</v>
+        <v>0.5734099754320001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03052694255603056</v>
+        <v>0.03051685416516632</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6516210428499496</v>
+        <v>0.6517327120836443</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03762099872493423</v>
+        <v>0.03712585199105795</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4882252757678598</v>
+        <v>0.4882362206638272</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03185525383070999</v>
+        <v>0.03184527651177509</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08517303920301564</v>
+        <v>0.08517375476817278</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00591762061467358</v>
+        <v>0.005918088536217489</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4890483010751804</v>
+        <v>0.489432928335378</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04126622287025583</v>
+        <v>0.04046914615746881</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1625727417747692</v>
+        <v>0.1622997837482663</v>
       </c>
       <c r="N22" t="n">
-        <v>0.005381675867692859</v>
+        <v>0.005215632052583106</v>
       </c>
     </row>
     <row r="23">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.068312432084678</v>
+        <v>1.161336027515494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03845282824276988</v>
+        <v>0.02981798519564742</v>
       </c>
       <c r="E27" t="n">
-        <v>1.087505060332753</v>
+        <v>1.195451236937416</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03467255048279608</v>
+        <v>0.02674435752258551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7370496169035439</v>
+        <v>0.8042877544469474</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02287866038015424</v>
+        <v>0.01711728632275033</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3312628151811344</v>
+        <v>0.3570482730685469</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01812119758302391</v>
+        <v>0.01633873034638278</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7179730440346763</v>
+        <v>0.7828205826233301</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01999635581372085</v>
+        <v>0.01588256302758014</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3695320162980771</v>
+        <v>0.4126306543140861</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01505165211384842</v>
+        <v>0.01143649942439341</v>
       </c>
     </row>
     <row r="28">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7260098855485055</v>
+        <v>0.7260101831132694</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05714761297906132</v>
+        <v>0.05714781649792869</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8397549891703828</v>
+        <v>0.8397553607850392</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09872977305157085</v>
+        <v>0.09872975008429374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5808645174773219</v>
+        <v>0.5808646344352321</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04200489739872217</v>
+        <v>0.04200500942263535</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1451453680711835</v>
+        <v>0.1451455486780373</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02547913465018848</v>
+        <v>0.02547924258665368</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5935688076060782</v>
+        <v>0.5935690142865273</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06263949417704023</v>
+        <v>0.06263952024613995</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2461861815643046</v>
+        <v>0.2461863464985118</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04054200621689885</v>
+        <v>0.0405420068849202</v>
       </c>
     </row>
     <row r="29">
@@ -1903,40 +1903,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9345438798727699</v>
+        <v>1.013868689329611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07468596671131789</v>
+        <v>0.04139220925500267</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9665486261229577</v>
+        <v>1.017640787789394</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06183685872794829</v>
+        <v>0.05801954648044274</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6998806397636195</v>
+        <v>0.7107058131418682</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03502885933055959</v>
+        <v>0.03025071816344031</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2346632401091503</v>
+        <v>0.3031628761877424</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04127019445028865</v>
+        <v>0.01311126150256606</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6642049254617456</v>
+        <v>0.6808252898458611</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03520862590415313</v>
+        <v>0.03578643479474711</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3023437006612119</v>
+        <v>0.3368154979435325</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03018859152018171</v>
+        <v>0.02495836618957953</v>
       </c>
     </row>
     <row r="34">
@@ -1947,40 +1947,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6259639624429203</v>
+        <v>0.6277420734954446</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05773600384977655</v>
+        <v>0.05729123588798227</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7405875954138625</v>
+        <v>0.7412932855342286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04755309261337266</v>
+        <v>0.04724060944399423</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5150923317655449</v>
+        <v>0.5168058934348101</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01825433247797677</v>
+        <v>0.01805180360614922</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1108716306773754</v>
+        <v>0.1109361800606344</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03996745243006473</v>
+        <v>0.03992151120625207</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4820159769809224</v>
+        <v>0.4901978283933286</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02997984736309632</v>
+        <v>0.03068013197085946</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2585716184329401</v>
+        <v>0.2510954571409</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02419025330502479</v>
+        <v>0.02633558272778794</v>
       </c>
     </row>
     <row r="35">
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.171767459949356</v>
+        <v>1.177766706684414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08270817600983726</v>
+        <v>0.09377589279389033</v>
       </c>
       <c r="E39" t="n">
-        <v>1.292916779464422</v>
+        <v>1.278029270995451</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05976183487694737</v>
+        <v>0.059199851750469</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8198834155045626</v>
+        <v>0.8126563480718716</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04760073199530913</v>
+        <v>0.04606364569700469</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3518840444447933</v>
+        <v>0.3651103586125427</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03748977849483187</v>
+        <v>0.04901341842141944</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8471802466279739</v>
+        <v>0.8357405761839491</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02574989179934613</v>
+        <v>0.02329557914905695</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4457365328364483</v>
+        <v>0.4422886948115014</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03702314249579867</v>
+        <v>0.03901373863856463</v>
       </c>
     </row>
     <row r="40">
@@ -2215,40 +2215,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4092357034335715</v>
+        <v>0.4092306197119243</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08837198953277904</v>
+        <v>0.08837581116354942</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3872236656078278</v>
+        <v>0.3872239566256691</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09784083744999598</v>
+        <v>0.0978397433412104</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3451550946620624</v>
+        <v>0.3451542343012345</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07600437161836569</v>
+        <v>0.07600543186051401</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06408060877150913</v>
+        <v>0.0640763854106898</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01661240950274338</v>
+        <v>0.01661159736697799</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3085882671328667</v>
+        <v>0.3085890071917162</v>
       </c>
       <c r="L40" t="n">
-        <v>0.07484500046281432</v>
+        <v>0.0748452988935828</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07863539847496108</v>
+        <v>0.07863494943395291</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02663541872243424</v>
+        <v>0.02663486085802981</v>
       </c>
     </row>
     <row r="41">
@@ -2439,40 +2439,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.124011929539529</v>
+        <v>1.130485390547883</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08115084494993467</v>
+        <v>0.07811585836014967</v>
       </c>
       <c r="E45" t="n">
-        <v>1.204569070254347</v>
+        <v>1.195930850830747</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03609021477109865</v>
+        <v>0.03180888719942589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7952038273673203</v>
+        <v>0.7975270546637969</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03068438892957105</v>
+        <v>0.02894456168040304</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3288081021722089</v>
+        <v>0.3329583358840857</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0517433636778916</v>
+        <v>0.05039133900860324</v>
       </c>
       <c r="K45" t="n">
-        <v>0.810002820580616</v>
+        <v>0.8054092251086933</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01989395626030748</v>
+        <v>0.01806321472033585</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3945662496737313</v>
+        <v>0.3905216257220537</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01986942710738753</v>
+        <v>0.01833410503904332</v>
       </c>
     </row>
     <row r="46">
@@ -2483,40 +2483,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5111174310439083</v>
+        <v>0.5110035620027511</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06203043707080233</v>
+        <v>0.0620919495058948</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5164939181567207</v>
+        <v>0.5136257316515339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07353227552361707</v>
+        <v>0.07567234862583425</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4305574952578312</v>
+        <v>0.4304544434253815</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04238523425332345</v>
+        <v>0.04244490623335673</v>
       </c>
       <c r="I46" t="n">
-        <v>0.08055993578607708</v>
+        <v>0.08054911857736957</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02518225316925662</v>
+        <v>0.02518555022849096</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3972246398680976</v>
+        <v>0.3962681571030567</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03633558892472811</v>
+        <v>0.03717054786970853</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1192692782886232</v>
+        <v>0.1173575745484772</v>
       </c>
       <c r="N46" t="n">
-        <v>0.03765600598449518</v>
+        <v>0.03889955995516006</v>
       </c>
     </row>
   </sheetData>
